--- a/Code/Results/Cases/Case_9_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009760502787479</v>
+        <v>1.009149556783248</v>
       </c>
       <c r="D2">
-        <v>1.032442441720275</v>
+        <v>1.03124099783353</v>
       </c>
       <c r="E2">
-        <v>1.025635092878697</v>
+        <v>1.025054210156167</v>
       </c>
       <c r="F2">
-        <v>1.038327441674974</v>
+        <v>1.037599850469019</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049410959473051</v>
+        <v>1.048918940372372</v>
       </c>
       <c r="J2">
-        <v>1.031653147162925</v>
+        <v>1.031060008114017</v>
       </c>
       <c r="K2">
-        <v>1.04346757295858</v>
+        <v>1.042281599441845</v>
       </c>
       <c r="L2">
-        <v>1.036748478960899</v>
+        <v>1.036175195183217</v>
       </c>
       <c r="M2">
-        <v>1.049277440570568</v>
+        <v>1.048559080686441</v>
       </c>
       <c r="N2">
-        <v>1.01434800513164</v>
+        <v>1.015359651411227</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047572145178455</v>
+        <v>1.047003616783201</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041805621065653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040975779601772</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023262557843533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013207204104135</v>
+        <v>1.012475152123264</v>
       </c>
       <c r="D3">
-        <v>1.034743240045768</v>
+        <v>1.033385773098655</v>
       </c>
       <c r="E3">
-        <v>1.028259675208238</v>
+        <v>1.027570717653835</v>
       </c>
       <c r="F3">
-        <v>1.04080089410409</v>
+        <v>1.039963841209303</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049979746375598</v>
+        <v>1.049418932050977</v>
       </c>
       <c r="J3">
-        <v>1.033344189975735</v>
+        <v>1.032631414169922</v>
       </c>
       <c r="K3">
-        <v>1.044950066508884</v>
+        <v>1.043608579894592</v>
       </c>
       <c r="L3">
-        <v>1.038543299039129</v>
+        <v>1.037862572775226</v>
       </c>
       <c r="M3">
-        <v>1.050937036786508</v>
+        <v>1.050109690441028</v>
       </c>
       <c r="N3">
-        <v>1.014925710233535</v>
+        <v>1.015786016146032</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048885590423358</v>
+        <v>1.048230808476888</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042851209850799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041911133080563</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023520253050919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015402914711667</v>
+        <v>1.014594492275222</v>
       </c>
       <c r="D4">
-        <v>1.036212269697809</v>
+        <v>1.034755907856465</v>
       </c>
       <c r="E4">
-        <v>1.029937421138496</v>
+        <v>1.029180200354898</v>
       </c>
       <c r="F4">
-        <v>1.042382048999489</v>
+        <v>1.041475752979332</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050333201758248</v>
+        <v>1.049728740934852</v>
       </c>
       <c r="J4">
-        <v>1.034420653671329</v>
+        <v>1.033632096464449</v>
       </c>
       <c r="K4">
-        <v>1.045892439211515</v>
+        <v>1.044452203353052</v>
       </c>
       <c r="L4">
-        <v>1.039687470902135</v>
+        <v>1.038938753911513</v>
       </c>
       <c r="M4">
-        <v>1.051994515405332</v>
+        <v>1.051098102778822</v>
       </c>
       <c r="N4">
-        <v>1.015293333616551</v>
+        <v>1.016057482528975</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049722503787757</v>
+        <v>1.049013061885565</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043518433326111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042508615838484</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023681817358498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016320806916601</v>
+        <v>1.015480630449258</v>
       </c>
       <c r="D5">
-        <v>1.036829065285032</v>
+        <v>1.035331525645045</v>
       </c>
       <c r="E5">
-        <v>1.030640591842973</v>
+        <v>1.029854968146527</v>
       </c>
       <c r="F5">
-        <v>1.043044912076364</v>
+        <v>1.042109796739733</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050480154502982</v>
+        <v>1.049857501367454</v>
       </c>
       <c r="J5">
-        <v>1.034871829853379</v>
+        <v>1.034051689695678</v>
       </c>
       <c r="K5">
-        <v>1.046288440735964</v>
+        <v>1.044807047890285</v>
       </c>
       <c r="L5">
-        <v>1.04016706552112</v>
+        <v>1.039390030734329</v>
       </c>
       <c r="M5">
-        <v>1.052437873528832</v>
+        <v>1.051512687577527</v>
       </c>
       <c r="N5">
-        <v>1.015447644093694</v>
+        <v>1.016171503054715</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050073387518472</v>
+        <v>1.049341174068344</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043805570848237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042767362874022</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023749666120234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016477939961217</v>
+        <v>1.01563232868196</v>
       </c>
       <c r="D6">
-        <v>1.036937033980508</v>
+        <v>1.035432508961052</v>
       </c>
       <c r="E6">
-        <v>1.030761596356828</v>
+        <v>1.029971114520022</v>
       </c>
       <c r="F6">
-        <v>1.043159194441473</v>
+        <v>1.042219167898801</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050506840736449</v>
+        <v>1.0498810889927</v>
       </c>
       <c r="J6">
-        <v>1.03495074106682</v>
+        <v>1.034125193283947</v>
       </c>
       <c r="K6">
-        <v>1.046359324862201</v>
+        <v>1.044870948685449</v>
       </c>
       <c r="L6">
-        <v>1.040250539893186</v>
+        <v>1.039468660684066</v>
       </c>
       <c r="M6">
-        <v>1.052515304810091</v>
+        <v>1.051585214639029</v>
       </c>
       <c r="N6">
-        <v>1.015474949257625</v>
+        <v>1.016191725465753</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050134668383524</v>
+        <v>1.049398573679641</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043864391063573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042822113453222</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023762389562048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015424574725663</v>
+        <v>1.014622543424498</v>
       </c>
       <c r="D7">
-        <v>1.036233069667636</v>
+        <v>1.034781007447524</v>
       </c>
       <c r="E7">
-        <v>1.029955490665208</v>
+        <v>1.029203575697778</v>
       </c>
       <c r="F7">
-        <v>1.042399645423945</v>
+        <v>1.04149756066792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050341126527183</v>
+        <v>1.049738727093595</v>
       </c>
       <c r="J7">
-        <v>1.034435832536668</v>
+        <v>1.033653500933254</v>
       </c>
       <c r="K7">
-        <v>1.045910147805936</v>
+        <v>1.044474157730688</v>
       </c>
       <c r="L7">
-        <v>1.039702452935636</v>
+        <v>1.038958978941069</v>
       </c>
       <c r="M7">
-        <v>1.052009081185525</v>
+        <v>1.051116830171947</v>
       </c>
       <c r="N7">
-        <v>1.015299391556203</v>
+        <v>1.016089793459791</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04973403148103</v>
+        <v>1.04902788318907</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04355096476952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042546146524589</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023688038347193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010944342763725</v>
+        <v>1.010313656726354</v>
       </c>
       <c r="D8">
-        <v>1.033239696432174</v>
+        <v>1.032000577873118</v>
       </c>
       <c r="E8">
-        <v>1.02653724031719</v>
+        <v>1.025937561394381</v>
       </c>
       <c r="F8">
-        <v>1.039178279613776</v>
+        <v>1.038428025161837</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049613627537838</v>
+        <v>1.049105596031159</v>
       </c>
       <c r="J8">
-        <v>1.032239767063627</v>
+        <v>1.031626853951637</v>
       </c>
       <c r="K8">
-        <v>1.043987479507425</v>
+        <v>1.04276384915761</v>
       </c>
       <c r="L8">
-        <v>1.03736935651239</v>
+        <v>1.036777290058497</v>
       </c>
       <c r="M8">
-        <v>1.049852472114469</v>
+        <v>1.049111456961481</v>
       </c>
       <c r="N8">
-        <v>1.014549570890764</v>
+        <v>1.015592845424147</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048027239542419</v>
+        <v>1.047440781541485</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042196036245172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041341833858138</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023360211428835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002759502438174</v>
+        <v>1.002424592707105</v>
       </c>
       <c r="D9">
-        <v>1.027789136796177</v>
+        <v>1.026925870006335</v>
       </c>
       <c r="E9">
-        <v>1.020337043690391</v>
+        <v>1.020000391456866</v>
       </c>
       <c r="F9">
-        <v>1.033334822991821</v>
+        <v>1.032849792199961</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048208852084437</v>
+        <v>1.047866452207739</v>
       </c>
       <c r="J9">
-        <v>1.028215190475144</v>
+        <v>1.02789202192033</v>
       </c>
       <c r="K9">
-        <v>1.040446888279523</v>
+        <v>1.039596692963472</v>
       </c>
       <c r="L9">
-        <v>1.033108563943875</v>
+        <v>1.032777101379123</v>
       </c>
       <c r="M9">
-        <v>1.045909264884557</v>
+        <v>1.045431475010288</v>
       </c>
       <c r="N9">
-        <v>1.013173060232381</v>
+        <v>1.014588026002813</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044906480953936</v>
+        <v>1.044528344498922</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039689464371557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039099022749219</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022731186296915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9971538288846505</v>
+        <v>0.9970558471716823</v>
       </c>
       <c r="D10">
-        <v>1.024095773588973</v>
+        <v>1.023513420558671</v>
       </c>
       <c r="E10">
-        <v>1.016145850387279</v>
+        <v>1.016017291469109</v>
       </c>
       <c r="F10">
-        <v>1.029417134489746</v>
+        <v>1.029136556040131</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047221127490803</v>
+        <v>1.047002913794942</v>
       </c>
       <c r="J10">
-        <v>1.025480826993146</v>
+        <v>1.025386764817829</v>
       </c>
       <c r="K10">
-        <v>1.038043186152766</v>
+        <v>1.037470725898895</v>
       </c>
       <c r="L10">
-        <v>1.030229579940491</v>
+        <v>1.030103248095723</v>
       </c>
       <c r="M10">
-        <v>1.043274818166936</v>
+        <v>1.042998940965058</v>
       </c>
       <c r="N10">
-        <v>1.01224162745148</v>
+        <v>1.014027565790008</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042872668242957</v>
+        <v>1.042654344088261</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038006659192294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03761426915552</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02230494466172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9950774181673853</v>
+        <v>0.9950965990578077</v>
       </c>
       <c r="D11">
-        <v>1.02287282854378</v>
+        <v>1.022408680290773</v>
       </c>
       <c r="E11">
-        <v>1.014771999707451</v>
+        <v>1.014742682854322</v>
       </c>
       <c r="F11">
-        <v>1.028386113170372</v>
+        <v>1.028198320847111</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046987573072421</v>
+        <v>1.046820092178367</v>
       </c>
       <c r="J11">
-        <v>1.024656425927531</v>
+        <v>1.024674797604237</v>
       </c>
       <c r="K11">
-        <v>1.037375914130126</v>
+        <v>1.036920023243897</v>
       </c>
       <c r="L11">
-        <v>1.029420612861557</v>
+        <v>1.029391828161119</v>
       </c>
       <c r="M11">
-        <v>1.042791854103521</v>
+        <v>1.042607355259728</v>
       </c>
       <c r="N11">
-        <v>1.011995744803036</v>
+        <v>1.014088359135456</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042924439843762</v>
+        <v>1.042778503520397</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03756760208713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037260842914863</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022233852592554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9944443511224567</v>
+        <v>0.9944963229854618</v>
       </c>
       <c r="D12">
-        <v>1.02255712660389</v>
+        <v>1.0221234227866</v>
       </c>
       <c r="E12">
-        <v>1.01442759729551</v>
+        <v>1.014424744273249</v>
       </c>
       <c r="F12">
-        <v>1.028250774509686</v>
+        <v>1.028087724076284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046974462225269</v>
+        <v>1.046818528538852</v>
       </c>
       <c r="J12">
-        <v>1.024485711383926</v>
+        <v>1.024535448648284</v>
       </c>
       <c r="K12">
-        <v>1.037264562257912</v>
+        <v>1.036838702052704</v>
       </c>
       <c r="L12">
-        <v>1.029283510705905</v>
+        <v>1.02928071033571</v>
       </c>
       <c r="M12">
-        <v>1.042856036018573</v>
+        <v>1.042695891138659</v>
       </c>
       <c r="N12">
-        <v>1.011965689715237</v>
+        <v>1.014172114436161</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043300072464409</v>
+        <v>1.043173442308404</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037488873225931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037203347729725</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0222456510853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9948925468319597</v>
+        <v>0.994903510252915</v>
       </c>
       <c r="D13">
-        <v>1.02293509897394</v>
+        <v>1.022457942275286</v>
       </c>
       <c r="E13">
-        <v>1.01486468818967</v>
+        <v>1.014824909966308</v>
       </c>
       <c r="F13">
-        <v>1.028814893731218</v>
+        <v>1.028618200724599</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047142669478741</v>
+        <v>1.046965093884186</v>
       </c>
       <c r="J13">
-        <v>1.024821229170156</v>
+        <v>1.024831723507078</v>
       </c>
       <c r="K13">
-        <v>1.037593101128401</v>
+        <v>1.037124537294386</v>
       </c>
       <c r="L13">
-        <v>1.029669442696535</v>
+        <v>1.029630395330815</v>
       </c>
       <c r="M13">
-        <v>1.043367858570564</v>
+        <v>1.043174654121953</v>
       </c>
       <c r="N13">
-        <v>1.012105815291106</v>
+        <v>1.014247570095465</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043980273590033</v>
+        <v>1.043827540587176</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037718675609472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03740271121209</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022326557480055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9956977914538184</v>
+        <v>0.9956471711771916</v>
       </c>
       <c r="D14">
-        <v>1.023516119815275</v>
+        <v>1.022975543226216</v>
       </c>
       <c r="E14">
-        <v>1.015525854579937</v>
+        <v>1.015432100083087</v>
       </c>
       <c r="F14">
-        <v>1.029528028849068</v>
+        <v>1.029281815674438</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047343163874526</v>
+        <v>1.04713578325655</v>
       </c>
       <c r="J14">
-        <v>1.025286560662128</v>
+        <v>1.025238075456788</v>
       </c>
       <c r="K14">
-        <v>1.038024183041623</v>
+        <v>1.03749322127398</v>
       </c>
       <c r="L14">
-        <v>1.030177390644281</v>
+        <v>1.030085337032698</v>
       </c>
       <c r="M14">
-        <v>1.043930044506922</v>
+        <v>1.043688142910595</v>
       </c>
       <c r="N14">
-        <v>1.012281509146141</v>
+        <v>1.014298263783377</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044597349695135</v>
+        <v>1.04440614603321</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038024882039259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037664933830281</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022415208021383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9961335724604751</v>
+        <v>0.9960523977539585</v>
       </c>
       <c r="D15">
-        <v>1.023815465860064</v>
+        <v>1.023243626046182</v>
       </c>
       <c r="E15">
-        <v>1.015863728499545</v>
+        <v>1.015743488097389</v>
       </c>
       <c r="F15">
-        <v>1.029865143079053</v>
+        <v>1.029594498712339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04743504977269</v>
+        <v>1.047213380005803</v>
       </c>
       <c r="J15">
-        <v>1.02551602024575</v>
+        <v>1.025438239647718</v>
       </c>
       <c r="K15">
-        <v>1.038232297844301</v>
+        <v>1.037670552297033</v>
       </c>
       <c r="L15">
-        <v>1.030422251881079</v>
+        <v>1.030304176162363</v>
       </c>
       <c r="M15">
-        <v>1.04417607328205</v>
+        <v>1.043910132220174</v>
       </c>
       <c r="N15">
-        <v>1.012363643812042</v>
+        <v>1.014313477181651</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044829219079426</v>
+        <v>1.044619019673519</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038177874025485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037796728948885</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022454198551437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9984192133933301</v>
+        <v>0.9981972797814663</v>
       </c>
       <c r="D16">
-        <v>1.025310754800657</v>
+        <v>1.024593023671283</v>
       </c>
       <c r="E16">
-        <v>1.017555646107314</v>
+        <v>1.017314387082125</v>
       </c>
       <c r="F16">
-        <v>1.0314369745064</v>
+        <v>1.031053320806441</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047837483422395</v>
+        <v>1.047551121684358</v>
       </c>
       <c r="J16">
-        <v>1.026618703950426</v>
+        <v>1.026405589658542</v>
       </c>
       <c r="K16">
-        <v>1.039202192878639</v>
+        <v>1.038496583585093</v>
       </c>
       <c r="L16">
-        <v>1.031579232166153</v>
+        <v>1.031342126005888</v>
       </c>
       <c r="M16">
-        <v>1.045225830328935</v>
+        <v>1.044848554747786</v>
       </c>
       <c r="N16">
-        <v>1.012734482962886</v>
+        <v>1.014365159463579</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045620366452759</v>
+        <v>1.0453221599765</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038866774697407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038384211852368</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022616154748386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9997526313228274</v>
+        <v>0.9994631609396135</v>
       </c>
       <c r="D17">
-        <v>1.026154653952431</v>
+        <v>1.02536418429362</v>
       </c>
       <c r="E17">
-        <v>1.01850864227729</v>
+        <v>1.018209505142184</v>
       </c>
       <c r="F17">
-        <v>1.032266505039759</v>
+        <v>1.031827627150536</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04803849509309</v>
+        <v>1.047720733909126</v>
       </c>
       <c r="J17">
-        <v>1.027220318864265</v>
+        <v>1.026941984723833</v>
       </c>
       <c r="K17">
-        <v>1.039719128406728</v>
+        <v>1.038941637747139</v>
       </c>
       <c r="L17">
-        <v>1.03219974820064</v>
+        <v>1.031905615126396</v>
       </c>
       <c r="M17">
-        <v>1.045731488197835</v>
+        <v>1.045299704123831</v>
       </c>
       <c r="N17">
-        <v>1.012926647987134</v>
+        <v>1.014407109112412</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045891502428095</v>
+        <v>1.045550177521692</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039234843289343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03870170506169</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022694578263302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000381748891592</v>
+        <v>1.000071908282878</v>
       </c>
       <c r="D18">
-        <v>1.026498024293484</v>
+        <v>1.025684430678167</v>
       </c>
       <c r="E18">
-        <v>1.01889469237842</v>
+        <v>1.018578727721249</v>
       </c>
       <c r="F18">
-        <v>1.032500705412489</v>
+        <v>1.032044771882573</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048076585901199</v>
+        <v>1.047750085928111</v>
       </c>
       <c r="J18">
-        <v>1.02743034196683</v>
+        <v>1.027132199284793</v>
       </c>
       <c r="K18">
-        <v>1.03987452288003</v>
+        <v>1.039074071096613</v>
       </c>
       <c r="L18">
-        <v>1.032395058845784</v>
+        <v>1.03208429313109</v>
       </c>
       <c r="M18">
-        <v>1.045781063911297</v>
+        <v>1.045332382409663</v>
       </c>
       <c r="N18">
-        <v>1.012976284119221</v>
+        <v>1.01440198029477</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045694023369962</v>
+        <v>1.045339267695418</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.0393331217287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038782615138685</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022700707009456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000386561304403</v>
+        <v>1.000092253771063</v>
       </c>
       <c r="D19">
-        <v>1.02640675963745</v>
+        <v>1.025609962287081</v>
       </c>
       <c r="E19">
-        <v>1.018777823266535</v>
+        <v>1.018476505978764</v>
       </c>
       <c r="F19">
-        <v>1.032206059971865</v>
+        <v>1.031762967036008</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.0479785253291</v>
+        <v>1.047661351942244</v>
       </c>
       <c r="J19">
-        <v>1.027300430888751</v>
+        <v>1.027017169466395</v>
       </c>
       <c r="K19">
-        <v>1.03972254524071</v>
+        <v>1.038938552484457</v>
       </c>
       <c r="L19">
-        <v>1.032217263280693</v>
+        <v>1.031920878812953</v>
       </c>
       <c r="M19">
-        <v>1.04542941302635</v>
+        <v>1.044993335403746</v>
       </c>
       <c r="N19">
-        <v>1.012905437975187</v>
+        <v>1.014340377747073</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045092061033767</v>
+        <v>1.044747159135365</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039232039268428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038693794286744</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022646967893855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.998629461348468</v>
+        <v>0.9984483784423455</v>
       </c>
       <c r="D20">
-        <v>1.025082555143196</v>
+        <v>1.024411551481695</v>
       </c>
       <c r="E20">
-        <v>1.01725182645003</v>
+        <v>1.017051086050798</v>
       </c>
       <c r="F20">
-        <v>1.030453710774523</v>
+        <v>1.030105185222521</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047495914245173</v>
+        <v>1.047237745775863</v>
       </c>
       <c r="J20">
-        <v>1.026213317384282</v>
+        <v>1.026039243806249</v>
       </c>
       <c r="K20">
-        <v>1.038698244789365</v>
+        <v>1.038038317969584</v>
       </c>
       <c r="L20">
-        <v>1.030997957998487</v>
+        <v>1.030800595525483</v>
       </c>
       <c r="M20">
-        <v>1.043981401999769</v>
+        <v>1.043638550751358</v>
       </c>
       <c r="N20">
-        <v>1.012493938231805</v>
+        <v>1.014107821496662</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043421358390144</v>
+        <v>1.043150028960997</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038511730471705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038061595127582</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022421707411888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9943539673011867</v>
+        <v>0.994457392174081</v>
       </c>
       <c r="D21">
-        <v>1.022244254618098</v>
+        <v>1.021864618583447</v>
       </c>
       <c r="E21">
-        <v>1.014033983789717</v>
+        <v>1.014079679988602</v>
       </c>
       <c r="F21">
-        <v>1.027396648087583</v>
+        <v>1.027276194015281</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046699044879796</v>
+        <v>1.046573329424528</v>
       </c>
       <c r="J21">
-        <v>1.024089658298097</v>
+        <v>1.024188689368092</v>
       </c>
       <c r="K21">
-        <v>1.036816111641143</v>
+        <v>1.036443270451916</v>
       </c>
       <c r="L21">
-        <v>1.028754268144414</v>
+        <v>1.028799129577347</v>
       </c>
       <c r="M21">
-        <v>1.041876929860967</v>
+        <v>1.041758603060847</v>
       </c>
       <c r="N21">
-        <v>1.011763868559811</v>
+        <v>1.014020076806855</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041715170517603</v>
+        <v>1.041621522940362</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037184215818233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03693738884189</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022098278883322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9916332012341919</v>
+        <v>0.9919165959339004</v>
       </c>
       <c r="D22">
-        <v>1.020445652354847</v>
+        <v>1.020250680921414</v>
       </c>
       <c r="E22">
-        <v>1.012002985821685</v>
+        <v>1.012204693440629</v>
       </c>
       <c r="F22">
-        <v>1.025482861357849</v>
+        <v>1.025507090485281</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04618754686779</v>
+        <v>1.046145949915872</v>
       </c>
       <c r="J22">
-        <v>1.022745065198035</v>
+        <v>1.023015723849093</v>
       </c>
       <c r="K22">
-        <v>1.035622674045146</v>
+        <v>1.03543136647429</v>
       </c>
       <c r="L22">
-        <v>1.027340353294801</v>
+        <v>1.02753818918538</v>
       </c>
       <c r="M22">
-        <v>1.040565854676232</v>
+        <v>1.040589634435348</v>
       </c>
       <c r="N22">
-        <v>1.011302406735997</v>
+        <v>1.013958528462091</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040677543414863</v>
+        <v>1.040696363494937</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036326944682938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036207171197123</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021891896222551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.993071218588541</v>
+        <v>0.9932476549118456</v>
       </c>
       <c r="D23">
-        <v>1.021390302598337</v>
+        <v>1.021088779494415</v>
       </c>
       <c r="E23">
-        <v>1.013074136075272</v>
+        <v>1.013183338091691</v>
       </c>
       <c r="F23">
-        <v>1.026491832498723</v>
+        <v>1.026431262484222</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04645488246986</v>
+        <v>1.046364488617201</v>
       </c>
       <c r="J23">
-        <v>1.023451612296248</v>
+        <v>1.023620350445788</v>
       </c>
       <c r="K23">
-        <v>1.036246313758693</v>
+        <v>1.035950313641069</v>
       </c>
       <c r="L23">
-        <v>1.028084047223312</v>
+        <v>1.028191206966174</v>
       </c>
       <c r="M23">
-        <v>1.041255038665081</v>
+        <v>1.04119556347989</v>
       </c>
       <c r="N23">
-        <v>1.011543936550727</v>
+        <v>1.013946185277855</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04122298599318</v>
+        <v>1.041175915417415</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036758276439222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036563539208337</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021995720584557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9986478513768025</v>
+        <v>0.9984675923652914</v>
       </c>
       <c r="D24">
-        <v>1.025072967580364</v>
+        <v>1.024402715101292</v>
       </c>
       <c r="E24">
-        <v>1.017246615465798</v>
+        <v>1.017046753878965</v>
       </c>
       <c r="F24">
-        <v>1.030423192955108</v>
+        <v>1.030075336323167</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04747986156045</v>
+        <v>1.047222337262769</v>
       </c>
       <c r="J24">
-        <v>1.026198050688883</v>
+        <v>1.026024758939715</v>
       </c>
       <c r="K24">
-        <v>1.03867363019634</v>
+        <v>1.038014428249945</v>
       </c>
       <c r="L24">
-        <v>1.030977482440534</v>
+        <v>1.030780979717657</v>
       </c>
       <c r="M24">
-        <v>1.043936307793168</v>
+        <v>1.043594107761398</v>
       </c>
       <c r="N24">
-        <v>1.012484225492662</v>
+        <v>1.014096635141891</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043345025501072</v>
+        <v>1.043074198132852</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038467018500546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038014725438096</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022411425155942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004924667283345</v>
+        <v>1.00450178016078</v>
       </c>
       <c r="D25">
-        <v>1.029237088614939</v>
+        <v>1.028267705309132</v>
       </c>
       <c r="E25">
-        <v>1.021973967212488</v>
+        <v>1.021559668404103</v>
       </c>
       <c r="F25">
-        <v>1.034878190777442</v>
+        <v>1.034316485720951</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048595115055941</v>
+        <v>1.048205647308185</v>
       </c>
       <c r="J25">
-        <v>1.029287425797005</v>
+        <v>1.028878585468629</v>
       </c>
       <c r="K25">
-        <v>1.041397878098795</v>
+        <v>1.040442495887774</v>
       </c>
       <c r="L25">
-        <v>1.034240480281868</v>
+        <v>1.033832269643088</v>
       </c>
       <c r="M25">
-        <v>1.046958162546234</v>
+        <v>1.046404454802278</v>
       </c>
       <c r="N25">
-        <v>1.013541407421274</v>
+        <v>1.014824285663561</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045736607622273</v>
+        <v>1.045298388090734</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040390336541141</v>
+        <v>1.039728323266799</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022902720413047</v>
       </c>
     </row>
   </sheetData>
